--- a/meta/en/8-5-2.xlsx
+++ b/meta/en/8-5-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>8. Promote sustained, inclusive and sustainable economic growth, full and productive employment and decent work for all</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>(0312) 626076</t>
@@ -156,6 +153,9 @@
     <t>KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io 
 http://www.stat.kg/ru/publications/sbornik-zhenshiny-i-muzhchiny-kyrgyzskoj-respubliki/
 http://www.stat.kg/ru/publications/zanyatost-i-bezrabotica-itogi-integrirovannogo-vyborochnogo-obsledovaniya-byudzhetov-domashnih-hozyajstv-i-rabochej-sily-v-2013g/</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
